--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Matn1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Matn1-Itga1.xlsx
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3987123333333334</v>
+        <v>0.4461060000000001</v>
       </c>
       <c r="H2">
-        <v>1.196137</v>
+        <v>1.338318</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N2">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q2">
-        <v>17.25675475376811</v>
+        <v>31.915178051352</v>
       </c>
       <c r="R2">
-        <v>155.310792783913</v>
+        <v>287.236602462168</v>
       </c>
       <c r="S2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="T2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3987123333333334</v>
+        <v>0.4461060000000001</v>
       </c>
       <c r="H3">
-        <v>1.196137</v>
+        <v>1.338318</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>29.595114</v>
       </c>
       <c r="O3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q3">
-        <v>3.933312319402001</v>
+        <v>4.400852642028001</v>
       </c>
       <c r="R3">
-        <v>35.39981087461801</v>
+        <v>39.607673778252</v>
       </c>
       <c r="S3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="T3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3987123333333334</v>
+        <v>0.4461060000000001</v>
       </c>
       <c r="H4">
-        <v>1.196137</v>
+        <v>1.338318</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N4">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O4">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P4">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q4">
-        <v>10.55901698763834</v>
+        <v>15.63974177212</v>
       </c>
       <c r="R4">
-        <v>95.03115288874503</v>
+        <v>140.75767594908</v>
       </c>
       <c r="S4">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="T4">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3987123333333334</v>
+        <v>0.4461060000000001</v>
       </c>
       <c r="H5">
-        <v>1.196137</v>
+        <v>1.338318</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N5">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q5">
-        <v>0.582129974475</v>
+        <v>0.08206610586600002</v>
       </c>
       <c r="R5">
-        <v>5.239169770275001</v>
+        <v>0.7385949527940001</v>
       </c>
       <c r="S5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="T5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
     </row>
   </sheetData>
